--- a/DataFolder/Book1.xlsx
+++ b/DataFolder/Book1.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\BankingTest\DataFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22176" windowHeight="4308" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22176" windowHeight="4308"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Customer ID</t>
   </si>
@@ -64,13 +64,17 @@
     <t>Customer no.</t>
   </si>
   <si>
-    <t/>
+    <t>mngr335577</t>
+  </si>
+  <si>
+    <t>Abc123!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,13 +488,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -502,8 +506,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -521,10 +528,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.33203125" collapsed="true"/>
+    <col min="4" max="16384" style="1" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -583,9 +590,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>16180</v>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1241.0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -599,17 +606,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -652,9 +659,9 @@
         <v>75783</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>94691</v>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>94694.0</v>
       </c>
     </row>
   </sheetData>

--- a/DataFolder/Book1.xlsx
+++ b/DataFolder/Book1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\BankingTest\DataFolder\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -74,7 +74,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -489,12 +488,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -528,10 +527,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="30.44140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.33203125" collapsed="true"/>
-    <col min="4" max="16384" style="1" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -590,9 +589,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1241.0</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1241</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -606,7 +605,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -614,9 +613,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -659,9 +658,9 @@
         <v>75783</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>94694.0</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>94694</v>
       </c>
     </row>
   </sheetData>
